--- a/data/trans_dic/P25_1-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P25_1-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece diabetes/azúcar alta en sangre/azúcar en orina</t>
+          <t>Población que padece diabetes/azúcar alta en sangre/azúcar en orina (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>8,94%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>12,12%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>7,16%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>12,53%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>6,88%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>7,42%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>8,42%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>8,99%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>8,1%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>6,96%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>7,52%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>10,25%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>8,35%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>7,0%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>7,55%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>8,66%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>10,53%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>11,37%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,72; 11,86</t>
+          <t>7,13; 12,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,42; 9,18</t>
+          <t>5,49; 9,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,87; 10,04</t>
+          <t>6,01; 9,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,67; 15,02</t>
+          <t>6,63; 11,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,31; 9,4</t>
+          <t>9,81; 15,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,13; 8,92</t>
+          <t>10,38; 15,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,58; 9,34</t>
+          <t>5,5; 9,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,76; 12,03</t>
+          <t>4,98; 8,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,54; 9,96</t>
+          <t>5,75; 9,4</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,81; 8,53</t>
+          <t>6,16; 11,37</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,26; 9,1</t>
+          <t>6,82; 11,71</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,85; 12,58</t>
+          <t>8,11; 12,89</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>6,9; 10,41</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>5,82; 8,55</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>6,25; 9,1</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>7,04; 10,55</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>8,73; 12,52</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>9,79; 13,42</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>6,54%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6,92%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>8,56%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>9,15%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>11,02%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8,39%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>5,97%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>7,13%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>9,29%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>8,0%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>13,65%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>7,1%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
           <t>6,26%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>6,75%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>9,16%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>9,31%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>6,08%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>7,31%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>8,0%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>7,43%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>6,17%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>7,03%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>8,61%</t>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>7,02%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>8,93%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>8,6%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>12,28%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,92; 7,79</t>
+          <t>3,81; 7,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,52; 8,6</t>
+          <t>4,88; 8,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,02; 9,09</t>
+          <t>5,07; 9,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,08; 13,27</t>
+          <t>6,26; 11,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,5; 12,68</t>
+          <t>5,92; 13,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,38; 8,49</t>
+          <t>7,7; 15,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,32; 9,81</t>
+          <t>6,06; 11,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,67; 13,01</t>
+          <t>4,29; 8,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,7; 9,47</t>
+          <t>5,19; 9,47</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,85; 7,72</t>
+          <t>6,38; 12,84</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,49; 8,66</t>
+          <t>4,9; 13,36</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,23; 11,68</t>
+          <t>8,9; 19,56</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>5,57; 8,85</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>4,98; 7,68</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>5,75; 8,45</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>7,1; 11,04</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>6,24; 11,74</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>9,35; 15,98</t>
         </is>
       </c>
     </row>
@@ -936,60 +1105,90 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,86%</t>
+          <t>12,95%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>9,1%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>13,0%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>9,51%</t>
+          <t>12,87%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>7,48%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>9,8%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>13,59%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>14,97%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>8,24%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>7,63%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>12,91%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>8,35%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>7,94%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>11,32%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,60 +1203,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,56; 28,9</t>
+          <t>7,44; 20,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,17; 15,64</t>
+          <t>5,19; 15,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,9; 10,48</t>
+          <t>2,82; 10,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>5,03; 16,14</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>7,57; 21,16</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,72; 11,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,68; 15,45</t>
+          <t>7,32; 20,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>4,13; 11,89</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>5,71; 15,75</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>7,64; 22,6</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>9,99; 21,56</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>5,47; 11,56</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>5,01; 10,93</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>8,98; 17,8</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>5,6; 12,07</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>5,4; 11,11</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>7,67; 17,23</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>8,81%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>11,41%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>8,65%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>12,16%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>8,42%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>6,6%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>7,56%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>7,58%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>9,34%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
         <is>
           <t>8,78%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>8,65%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>6,8%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>7,34%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>11,0%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>8,4%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>6,87%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>7,39%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>9,08%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>10,09%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>11,58%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,84; 10,65</t>
+          <t>6,88; 10,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,76; 8,47</t>
+          <t>5,95; 8,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,82; 8,5</t>
+          <t>6,0; 8,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,27; 13,72</t>
+          <t>7,14; 10,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,12; 10,78</t>
+          <t>9,46; 13,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,38; 7,98</t>
+          <t>9,98; 14,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,3; 8,96</t>
+          <t>6,92; 10,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,88; 11,2</t>
+          <t>5,34; 7,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,47; 9,98</t>
+          <t>6,2; 9,17</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,9; 7,7</t>
+          <t>7,64; 11,42</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,46; 8,38</t>
+          <t>6,82; 11,15</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,53; 11,8</t>
+          <t>8,96; 13,19</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>7,3; 9,71</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>5,94; 7,87</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>6,46; 8,51</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>7,9; 10,43</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>8,67; 11,74</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>10,24; 13,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece diabetes/azúcar alta en sangre/azúcar en orina (tasa de respuesta: 99,91%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>154599</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>117443</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>126738</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>146022</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>27627</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>28552</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>133979</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>125784</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>134897</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>151822</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>21327</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>24162</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>288578</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>243227</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>261635</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>297844</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>48954</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>52714</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>117801; 203956</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>90406; 152863</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>98860; 163430</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>108419; 188095</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>22353; 34357</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>23671; 35690</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>99047; 176440</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>91048; 163213</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>104536; 170910</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>111204; 205050</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>16170; 27788</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>19135; 30400</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>238493; 359723</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>202298; 297075</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>216477; 315221</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>242013; 362662</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>40617; 58246</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>45425; 62231</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>79527</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>90175</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>95369</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>118402</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>6583</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>8074</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>116562</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>81781</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>98498</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>129516</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>5244</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>9135</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>196089</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>171955</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>193867</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>247918</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>11827</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>17210</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>52315; 109761</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>67284; 118063</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>69892; 128307</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>86524; 162348</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4255; 9539</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5645; 10997</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>84219; 157965</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>58750; 110427</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>71696; 130877</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>88919; 179012</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3215; 8758</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>5956; 13088</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>154005; 244469</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>136997; 211220</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>158778; 233390</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>197125; 306673</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>8575; 16142</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>13113; 22405</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>54742</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>38910</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>25909</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>38466</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>52432</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>30627</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>40371</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>55995</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>107174</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>69537</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>66280</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>94461</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>31452; 86594</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>21950; 64889</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11907; 46191</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>21259; 68229</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>29832; 84057</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>16910; 48699</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>23499; 64870</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>31467; 93097</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>74542; 147744</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>46600; 100496</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>45046; 92759</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>64051; 143858</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>202.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>229.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>229.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>288868</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>246527</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>248016</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>302890</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>34210</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>36627</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>302972</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>238192</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>273766</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>337333</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>26571</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>33297</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>591840</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>484719</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>521783</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>640224</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>60781</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>69924</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>237251; 355653</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>205090; 296113</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>206997; 298012</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>245749; 366010</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>28352; 41834</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>30072; 43713</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>248991; 360959</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>192531; 286162</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>223966; 331215</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>275893; 412229</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>20659; 33750</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>27136; 39928</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>514616; 684683</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>418883; 555515</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>456142; 600725</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>556697; 735242</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>52248; 70738</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>61852; 80857</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
